--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/jgarza25_illinois_edu/Documents/Stock Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{1B89AED3-8428-AE40-8C53-5E7361EB8CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896D5EBF-39E0-4FB4-9786-9A565252CE77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8000B1F-CF86-9F44-9699-17D4331155E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" activeTab="1" xr2:uid="{7F1A3DF6-215C-2343-B883-EFC4578CE452}"/>
+    <workbookView xWindow="13380" yWindow="520" windowWidth="27740" windowHeight="21900" activeTab="1" xr2:uid="{7F1A3DF6-215C-2343-B883-EFC4578CE452}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t>Model</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -2691,14 +2697,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>806975</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>818625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>833074</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>5825</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2715,8 +2721,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="16344085" y="0"/>
-          <a:ext cx="26099" cy="12814533"/>
+          <a:off x="18027708" y="0"/>
+          <a:ext cx="26099" cy="12631024"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2881,9 +2887,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2921,7 +2927,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3027,7 +3033,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3169,7 +3175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3187,18 +3193,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4575D66D-F1D4-C54A-9CBD-B80601D9BB7D}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>952020</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>13143</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>10950</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D7" s="52" t="s">
         <v>16</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>949827</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D8" s="52" t="s">
         <v>18</v>
       </c>
@@ -3309,7 +3315,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D9" s="52" t="s">
         <v>19</v>
       </c>
@@ -3317,19 +3323,19 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
     </row>
-    <row r="10" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D10" s="52"/>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
     </row>
-    <row r="11" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D11" s="52"/>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
     </row>
-    <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D12" s="52" t="s">
         <v>20</v>
       </c>
@@ -3337,7 +3343,7 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
     </row>
-    <row r="13" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D13" s="52" t="s">
         <v>21</v>
       </c>
@@ -3345,7 +3351,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D14" s="52" t="s">
         <v>22</v>
       </c>
@@ -3353,7 +3359,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
     </row>
-    <row r="15" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D15" s="52" t="s">
         <v>23</v>
       </c>
@@ -3361,19 +3367,19 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="D16" s="52"/>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="4:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" ht="24" x14ac:dyDescent="0.3">
       <c r="D17" s="52"/>
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="4:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="24" x14ac:dyDescent="0.3">
       <c r="D18" s="52" t="s">
         <v>24</v>
       </c>
@@ -3381,7 +3387,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="4:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="24" x14ac:dyDescent="0.3">
       <c r="D19" s="52" t="s">
         <v>25</v>
       </c>
@@ -3402,23 +3408,23 @@
   <dimension ref="A1:EO61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL39" sqref="AL39:AM49"/>
+      <selection pane="bottomRight" activeCell="AG44" sqref="AG44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="4"/>
-    <col min="26" max="26" width="9.125" customWidth="1"/>
-    <col min="39" max="39" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="4"/>
+    <col min="26" max="26" width="9.1640625" customWidth="1"/>
+    <col min="39" max="39" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -3475,6 +3481,12 @@
       </c>
       <c r="T1" t="s">
         <v>90</v>
+      </c>
+      <c r="U1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" t="s">
+        <v>93</v>
       </c>
       <c r="Y1">
         <v>2020</v>
@@ -3523,7 +3535,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>3</v>
@@ -3576,8 +3588,12 @@
       <c r="S2" s="4">
         <v>4284</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="T2" s="4">
+        <v>10323</v>
+      </c>
+      <c r="U2" s="4">
+        <v>14514</v>
+      </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="Z2" s="4">
@@ -3601,7 +3617,7 @@
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>5</v>
@@ -3654,8 +3670,12 @@
       <c r="S3" s="4">
         <v>2240</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="T3" s="4">
+        <v>2486</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2856</v>
+      </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="Z3" s="4">
@@ -3679,7 +3699,7 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -3732,8 +3752,12 @@
       <c r="S4" s="4">
         <v>295</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="T4" s="4">
+        <v>379</v>
+      </c>
+      <c r="U4" s="4">
+        <v>416</v>
+      </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="Z4" s="4">
@@ -3757,7 +3781,7 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>43</v>
@@ -3810,8 +3834,12 @@
       <c r="S5" s="4">
         <v>296</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="T5" s="4">
+        <v>253</v>
+      </c>
+      <c r="U5" s="4">
+        <v>261</v>
+      </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="Z5" s="4">
@@ -3835,7 +3863,7 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>13</v>
@@ -3888,8 +3916,12 @@
       <c r="S6" s="4">
         <v>77</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="T6" s="4">
+        <v>66</v>
+      </c>
+      <c r="U6" s="4">
+        <v>73</v>
+      </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="Z6" s="4">
@@ -3913,7 +3945,7 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -3984,10 +4016,16 @@
         <v>7192</v>
       </c>
       <c r="T7" s="5">
-        <v>11000</v>
-      </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+        <f>SUM(T2:T6)</f>
+        <v>13507</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" ref="U7" si="16">SUM(U2:U6)</f>
+        <v>18120</v>
+      </c>
+      <c r="V7" s="2">
+        <v>20000</v>
+      </c>
       <c r="W7" s="2"/>
       <c r="Y7" s="5">
         <f>SUM(C7:F7)</f>
@@ -3998,7 +4036,7 @@
         <v>16675</v>
       </c>
       <c r="AA7" s="5">
-        <f t="shared" ref="AA7" si="16">SUM(AA2:AA6)</f>
+        <f t="shared" ref="AA7" si="17">SUM(AA2:AA6)</f>
         <v>26914</v>
       </c>
       <c r="AB7" s="5">
@@ -4006,39 +4044,39 @@
         <v>27024</v>
       </c>
       <c r="AC7" s="5">
-        <f>AB7*1.6</f>
-        <v>43238.400000000001</v>
+        <f>SUM(S7:V7)</f>
+        <v>58819</v>
       </c>
       <c r="AD7" s="5">
         <f>AC7*1.4</f>
-        <v>60533.759999999995</v>
+        <v>82346.599999999991</v>
       </c>
       <c r="AE7" s="5">
         <f>AD7*1.35</f>
-        <v>81720.576000000001</v>
+        <v>111167.90999999999</v>
       </c>
       <c r="AF7" s="5">
         <f>AE7*1.3</f>
-        <v>106236.7488</v>
+        <v>144518.283</v>
       </c>
       <c r="AG7" s="5">
         <f>AF7*1.3</f>
-        <v>138107.77344000002</v>
+        <v>187873.76790000001</v>
       </c>
       <c r="AH7" s="5">
         <f>AG7*1.2</f>
-        <v>165729.32812800002</v>
+        <v>225448.52148</v>
       </c>
       <c r="AI7" s="5">
-        <f t="shared" ref="AI7:AJ7" si="17">AH7*1.2</f>
-        <v>198875.19375360003</v>
+        <f t="shared" ref="AI7:AJ7" si="18">AH7*1.2</f>
+        <v>270538.22577600001</v>
       </c>
       <c r="AJ7" s="5">
-        <f t="shared" si="17"/>
-        <v>238650.23250432004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>324645.87093119998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -4094,10 +4132,11 @@
         <v>2544</v>
       </c>
       <c r="T8" s="4">
-        <f>T7-T9</f>
-        <v>3519.9999999999991</v>
-      </c>
-      <c r="U8" s="4"/>
+        <v>4045</v>
+      </c>
+      <c r="U8" s="4">
+        <v>4720</v>
+      </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="Y8" s="4">
@@ -4125,68 +4164,68 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:Q9" si="18">C7-C8</f>
+        <f t="shared" ref="C9:Q9" si="19">C7-C8</f>
         <v>1296</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1541</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1916</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2004</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2275</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2960</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3157</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3629</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4215</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4631</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4999</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5431</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2915</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3227</v>
       </c>
       <c r="R9" s="4">
@@ -4198,11 +4237,17 @@
         <v>4648</v>
       </c>
       <c r="T9" s="4">
-        <f>T7*0.68</f>
-        <v>7480.0000000000009</v>
-      </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+        <f>T7-T8</f>
+        <v>9462</v>
+      </c>
+      <c r="U9" s="4">
+        <f>U7-U8</f>
+        <v>13400</v>
+      </c>
+      <c r="V9" s="4">
+        <f>V7*0.75</f>
+        <v>15000</v>
+      </c>
       <c r="W9" s="4"/>
       <c r="Y9" s="4">
         <f>Y7-Y8</f>
@@ -4221,39 +4266,39 @@
         <v>15406</v>
       </c>
       <c r="AC9" s="4">
-        <f>AC7*0.68</f>
-        <v>29402.112000000005</v>
+        <f>AC7*0.74</f>
+        <v>43526.06</v>
       </c>
       <c r="AD9" s="4">
-        <f t="shared" ref="AD9:AJ9" si="19">AD7*0.68</f>
-        <v>41162.9568</v>
+        <f t="shared" ref="AD9:AJ9" si="20">AD7*0.74</f>
+        <v>60936.483999999989</v>
       </c>
       <c r="AE9" s="4">
-        <f t="shared" si="19"/>
-        <v>55569.991680000006</v>
+        <f t="shared" si="20"/>
+        <v>82264.253399999987</v>
       </c>
       <c r="AF9" s="4">
-        <f t="shared" si="19"/>
-        <v>72240.989184000005</v>
+        <f t="shared" si="20"/>
+        <v>106943.52941999999</v>
       </c>
       <c r="AG9" s="4">
-        <f t="shared" si="19"/>
-        <v>93913.285939200025</v>
+        <f t="shared" si="20"/>
+        <v>139026.588246</v>
       </c>
       <c r="AH9" s="4">
-        <f t="shared" si="19"/>
-        <v>112695.94312704002</v>
+        <f t="shared" si="20"/>
+        <v>166831.90589520001</v>
       </c>
       <c r="AI9" s="4">
-        <f t="shared" si="19"/>
-        <v>135235.13175244804</v>
+        <f t="shared" si="20"/>
+        <v>200198.28707424001</v>
       </c>
       <c r="AJ9" s="4">
-        <f t="shared" si="19"/>
-        <v>162282.15810293762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>240237.944489088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -4308,16 +4353,20 @@
       <c r="S10" s="4">
         <v>1875</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="T10" s="4">
+        <v>2040</v>
+      </c>
+      <c r="U10" s="4">
+        <v>2294</v>
+      </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="Y10" s="4">
-        <f t="shared" ref="Y10:Y11" si="20">SUM(C10:F10)</f>
+        <f t="shared" ref="Y10:Y11" si="21">SUM(C10:F10)</f>
         <v>2828</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" ref="Z10:Z11" si="21">SUM(G10:J10)</f>
+        <f t="shared" ref="Z10:Z11" si="22">SUM(G10:J10)</f>
         <v>3926</v>
       </c>
       <c r="AA10" s="4">
@@ -4337,7 +4386,7 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -4392,16 +4441,20 @@
       <c r="S11" s="4">
         <v>633</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="T11" s="4">
+        <v>622</v>
+      </c>
+      <c r="U11" s="4">
+        <v>689</v>
+      </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="Y11" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1094</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1938</v>
       </c>
       <c r="AA11" s="4">
@@ -4421,68 +4474,68 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:Q12" si="22">C11+C10</f>
+        <f t="shared" ref="C12:Q12" si="23">C11+C10</f>
         <v>938</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>970</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>989</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1025</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1028</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1624</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1562</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1650</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1673</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1771</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1960</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2029</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2210</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2416</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2576</v>
       </c>
       <c r="R12" s="4">
@@ -4494,10 +4547,16 @@
         <v>2508</v>
       </c>
       <c r="T12" s="4">
-        <v>2710</v>
-      </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+        <f>T11+T10</f>
+        <v>2662</v>
+      </c>
+      <c r="U12" s="4">
+        <f>U11+U10</f>
+        <v>2983</v>
+      </c>
+      <c r="V12" s="4">
+        <v>3200</v>
+      </c>
       <c r="W12" s="4"/>
       <c r="Y12" s="4">
         <f>Y11+Y10</f>
@@ -4524,72 +4583,72 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:R13" si="23">C9-C12</f>
+        <f t="shared" ref="C13:R13" si="24">C9-C12</f>
         <v>358</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>571</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>927</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>990</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>976</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>651</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1398</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1507</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1956</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2444</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2671</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2970</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3221</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>499</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>651</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1257</v>
       </c>
       <c r="S13" s="4">
@@ -4597,11 +4656,17 @@
         <v>2140</v>
       </c>
       <c r="T13" s="4">
-        <f>T9-T12</f>
-        <v>4770.0000000000009</v>
-      </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+        <f t="shared" ref="T13:V13" si="25">T9-T12</f>
+        <v>6800</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="25"/>
+        <v>10417</v>
+      </c>
+      <c r="V13" s="4">
+        <f>V9-V12</f>
+        <v>11800</v>
+      </c>
       <c r="W13" s="4"/>
       <c r="Y13" s="4">
         <f>Y9-Y12</f>
@@ -4620,39 +4685,39 @@
         <v>5628</v>
       </c>
       <c r="AC13" s="4">
-        <f>AC7*0.42</f>
-        <v>18160.128000000001</v>
+        <f>AC7*0.58</f>
+        <v>34115.019999999997</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" ref="AD13:AJ13" si="24">AD7*0.42</f>
-        <v>25424.179199999999</v>
+        <f t="shared" ref="AD13:AJ13" si="26">AD7*0.58</f>
+        <v>47761.027999999991</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="24"/>
-        <v>34322.641920000002</v>
+        <f t="shared" si="26"/>
+        <v>64477.38779999999</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="24"/>
-        <v>44619.434496000002</v>
+        <f t="shared" si="26"/>
+        <v>83820.604139999996</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="24"/>
-        <v>58005.264844800004</v>
+        <f t="shared" si="26"/>
+        <v>108966.785382</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="24"/>
-        <v>69606.317813760004</v>
+        <f t="shared" si="26"/>
+        <v>130760.14245839999</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="24"/>
-        <v>83527.581376512011</v>
+        <f t="shared" si="26"/>
+        <v>156912.17095008001</v>
       </c>
       <c r="AJ13" s="4">
-        <f t="shared" si="24"/>
-        <v>100233.09765181442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>188294.60514009598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -4723,16 +4788,25 @@
       <c r="S14" s="4">
         <v>150</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="T14" s="4">
+        <f>187-65</f>
+        <v>122</v>
+      </c>
+      <c r="U14" s="4">
+        <f>234-63</f>
+        <v>171</v>
+      </c>
+      <c r="V14" s="4">
+        <f>234-63</f>
+        <v>171</v>
+      </c>
       <c r="W14" s="4"/>
       <c r="Y14" s="4">
-        <f t="shared" ref="Y14:Y17" si="25">SUM(C14:F14)</f>
+        <f t="shared" ref="Y14:Y17" si="27">SUM(C14:F14)</f>
         <v>126</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" ref="Z14:Z17" si="26">SUM(G14:J14)</f>
+        <f t="shared" ref="Z14:Z17" si="28">SUM(G14:J14)</f>
         <v>-128</v>
       </c>
       <c r="AA14" s="4">
@@ -4746,34 +4820,34 @@
       </c>
       <c r="AD14" s="4">
         <f>AC38*$AM$42</f>
-        <v>578.5176224999999</v>
+        <v>971.67286499999989</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" ref="AE14:AI14" si="27">AD38*$AM$42</f>
-        <v>1261.0884140906248</v>
+        <f t="shared" ref="AE14:AI14" si="29">AD38*$AM$42</f>
+        <v>2214.3567370574997</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" si="27"/>
-        <v>2195.1613353605039</v>
+        <f t="shared" si="29"/>
+        <v>3914.9962227524652</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="27"/>
-        <v>3424.0444759337174</v>
+        <f t="shared" si="29"/>
+        <v>6152.2540320026537</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" si="27"/>
-        <v>5036.5638456029774</v>
+        <f t="shared" si="29"/>
+        <v>9087.7895370597216</v>
       </c>
       <c r="AI14" s="4">
-        <f t="shared" si="27"/>
-        <v>6995.9394891612565</v>
+        <f t="shared" si="29"/>
+        <v>12653.911802943943</v>
       </c>
       <c r="AJ14" s="4">
         <f>AI38*$AM$42</f>
-        <v>9372.1819118851799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+        <v>16977.846913146055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>52</v>
       </c>
@@ -4830,16 +4904,20 @@
         <f>-66-15</f>
         <v>-81</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="T15" s="4">
+        <v>59</v>
+      </c>
+      <c r="U15" s="4">
+        <v>-66</v>
+      </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="Y15" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AA15" s="4">
@@ -4851,84 +4929,90 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:R16" si="28">C13+C14+C15</f>
+        <f t="shared" ref="C16:R16" si="30">C13+C14+C15</f>
         <v>389</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>606</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>959</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1016</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>981</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>609</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1348</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1470</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2044</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2394</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2638</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2865</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3158</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>475</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>663</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1289</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" ref="S16" si="29">S13+S14+S15</f>
+        <f t="shared" ref="S16" si="31">S13+S14+S15</f>
         <v>2209</v>
       </c>
       <c r="T16" s="4">
         <f>T13+T14+T15</f>
-        <v>4770.0000000000009</v>
-      </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+        <v>6981</v>
+      </c>
+      <c r="U16" s="4">
+        <f>U13+U14+U15</f>
+        <v>10522</v>
+      </c>
+      <c r="V16" s="4">
+        <f>V13+V14+V15</f>
+        <v>11971</v>
+      </c>
       <c r="W16" s="4"/>
       <c r="Y16" s="4">
         <f>Y13+Y14+Y15</f>
@@ -4948,38 +5032,38 @@
       </c>
       <c r="AC16" s="4">
         <f>AC13+AC14+AC15</f>
-        <v>18259.338</v>
+        <v>34214.229999999996</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" ref="AD16:AJ16" si="30">AD13+AD14+AD15</f>
-        <v>26002.696822499998</v>
+        <f t="shared" ref="AD16:AJ16" si="32">AD13+AD14+AD15</f>
+        <v>48732.700864999992</v>
       </c>
       <c r="AE16" s="4">
-        <f t="shared" si="30"/>
-        <v>35583.730334090629</v>
+        <f t="shared" si="32"/>
+        <v>66691.744537057486</v>
       </c>
       <c r="AF16" s="4">
-        <f t="shared" si="30"/>
-        <v>46814.595831360508</v>
+        <f t="shared" si="32"/>
+        <v>87735.600362752462</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="30"/>
-        <v>61429.309320733722</v>
+        <f t="shared" si="32"/>
+        <v>115119.03941400266</v>
       </c>
       <c r="AH16" s="4">
-        <f t="shared" si="30"/>
-        <v>74642.881659362989</v>
+        <f t="shared" si="32"/>
+        <v>139847.93199545972</v>
       </c>
       <c r="AI16" s="4">
-        <f t="shared" si="30"/>
-        <v>90523.520865673272</v>
+        <f t="shared" si="32"/>
+        <v>169566.08275302395</v>
       </c>
       <c r="AJ16" s="4">
-        <f t="shared" si="30"/>
-        <v>109605.2795636996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:145" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>205272.45205324204</v>
+      </c>
+    </row>
+    <row r="17" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>54</v>
       </c>
@@ -5036,18 +5120,22 @@
         <v>166</v>
       </c>
       <c r="T17" s="4">
-        <f>T16*T36</f>
-        <v>667.80000000000018</v>
-      </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1279</v>
+      </c>
+      <c r="V17" s="4">
+        <f>V16*0.15</f>
+        <v>1795.6499999999999</v>
+      </c>
       <c r="W17" s="4"/>
       <c r="Y17" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>175</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>76</v>
       </c>
       <c r="AA17" s="4">
@@ -5059,116 +5147,122 @@
         <v>-186</v>
       </c>
       <c r="AC17" s="4">
-        <f>AC16*0.125</f>
-        <v>2282.41725</v>
+        <f>AC16*0.15</f>
+        <v>5132.1344999999992</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" ref="AD17:AJ17" si="31">AD16*0.125</f>
-        <v>3250.3371028124998</v>
+        <f t="shared" ref="AD17:AJ17" si="33">AD16*0.15</f>
+        <v>7309.9051297499982</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="31"/>
-        <v>4447.9662917613286</v>
+        <f t="shared" si="33"/>
+        <v>10003.761680558622</v>
       </c>
       <c r="AF17" s="4">
-        <f t="shared" si="31"/>
-        <v>5851.8244789200635</v>
+        <f t="shared" si="33"/>
+        <v>13160.340054412869</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="31"/>
-        <v>7678.6636650917153</v>
+        <f t="shared" si="33"/>
+        <v>17267.8559121004</v>
       </c>
       <c r="AH17" s="4">
-        <f t="shared" si="31"/>
-        <v>9330.3602074203736</v>
+        <f t="shared" si="33"/>
+        <v>20977.189799318956</v>
       </c>
       <c r="AI17" s="4">
-        <f t="shared" si="31"/>
-        <v>11315.440108209159</v>
+        <f t="shared" si="33"/>
+        <v>25434.912412953592</v>
       </c>
       <c r="AJ17" s="4">
-        <f t="shared" si="31"/>
-        <v>13700.65994546245</v>
-      </c>
-    </row>
-    <row r="18" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>30790.867807986306</v>
+      </c>
+    </row>
+    <row r="18" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:R18" si="32">C16-C17</f>
+        <f t="shared" ref="C18:R18" si="34">C16-C17</f>
         <v>394</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>552</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>899</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>950</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>917</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>622</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1336</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1457</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1912</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2374</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2464</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3003</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2971</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>656</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>730</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1414</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" ref="S18" si="33">S16-S17</f>
+        <f t="shared" ref="S18" si="35">S16-S17</f>
         <v>2043</v>
       </c>
       <c r="T18" s="5">
         <f>T16-T17</f>
-        <v>4102.2000000000007</v>
-      </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+        <v>6188</v>
+      </c>
+      <c r="U18" s="5">
+        <f>U16-U17</f>
+        <v>9243</v>
+      </c>
+      <c r="V18" s="5">
+        <f>V16-V17</f>
+        <v>10175.35</v>
+      </c>
       <c r="W18" s="5"/>
       <c r="Y18" s="5">
         <f>Y16-Y17</f>
@@ -5188,474 +5282,474 @@
       </c>
       <c r="AC18" s="5">
         <f>AC16-AC17</f>
-        <v>15976.920749999999</v>
+        <v>29082.095499999996</v>
       </c>
       <c r="AD18" s="5">
-        <f t="shared" ref="AD18:AJ18" si="34">AD16-AD17</f>
-        <v>22752.359719687498</v>
+        <f t="shared" ref="AD18:AJ18" si="36">AD16-AD17</f>
+        <v>41422.795735249994</v>
       </c>
       <c r="AE18" s="5">
-        <f t="shared" si="34"/>
-        <v>31135.764042329301</v>
+        <f t="shared" si="36"/>
+        <v>56687.982856498864</v>
       </c>
       <c r="AF18" s="5">
-        <f t="shared" si="34"/>
-        <v>40962.771352440446</v>
+        <f t="shared" si="36"/>
+        <v>74575.260308339595</v>
       </c>
       <c r="AG18" s="5">
-        <f t="shared" si="34"/>
-        <v>53750.645655642009</v>
+        <f t="shared" si="36"/>
+        <v>97851.183501902269</v>
       </c>
       <c r="AH18" s="5">
-        <f t="shared" si="34"/>
-        <v>65312.521451942615</v>
+        <f t="shared" si="36"/>
+        <v>118870.74219614075</v>
       </c>
       <c r="AI18" s="5">
-        <f t="shared" si="34"/>
-        <v>79208.080757464108</v>
+        <f t="shared" si="36"/>
+        <v>144131.17034007036</v>
       </c>
       <c r="AJ18" s="5">
-        <f t="shared" si="34"/>
-        <v>95904.61961823715</v>
+        <f t="shared" si="36"/>
+        <v>174481.58424525574</v>
       </c>
       <c r="AK18" s="5">
         <f>AJ18*(1+$AM$39)</f>
-        <v>94945.573422054775</v>
+        <v>172736.76840280319</v>
       </c>
       <c r="AL18" s="5">
-        <f t="shared" ref="AL18:BP18" si="35">AK18*(1+$AM$39)</f>
-        <v>93996.117687834223</v>
+        <f t="shared" ref="AL18:BP18" si="37">AK18*(1+$AM$39)</f>
+        <v>171009.40071877517</v>
       </c>
       <c r="AM18" s="5">
-        <f t="shared" si="35"/>
-        <v>93056.156510955887</v>
+        <f t="shared" si="37"/>
+        <v>169299.30671158741</v>
       </c>
       <c r="AN18" s="5">
-        <f t="shared" si="35"/>
-        <v>92125.594945846329</v>
+        <f t="shared" si="37"/>
+        <v>167606.31364447155</v>
       </c>
       <c r="AO18" s="5">
-        <f t="shared" si="35"/>
-        <v>91204.338996387858</v>
+        <f t="shared" si="37"/>
+        <v>165930.25050802683</v>
       </c>
       <c r="AP18" s="5">
-        <f t="shared" si="35"/>
-        <v>90292.295606423984</v>
+        <f t="shared" si="37"/>
+        <v>164270.94800294656</v>
       </c>
       <c r="AQ18" s="5">
-        <f t="shared" si="35"/>
-        <v>89389.372650359743</v>
+        <f t="shared" si="37"/>
+        <v>162628.23852291709</v>
       </c>
       <c r="AR18" s="5">
-        <f t="shared" si="35"/>
-        <v>88495.47892385615</v>
+        <f t="shared" si="37"/>
+        <v>161001.95613768793</v>
       </c>
       <c r="AS18" s="5">
-        <f t="shared" si="35"/>
-        <v>87610.52413461759</v>
+        <f t="shared" si="37"/>
+        <v>159391.93657631104</v>
       </c>
       <c r="AT18" s="5">
-        <f t="shared" si="35"/>
-        <v>86734.418893271417</v>
+        <f t="shared" si="37"/>
+        <v>157798.01721054793</v>
       </c>
       <c r="AU18" s="5">
-        <f t="shared" si="35"/>
-        <v>85867.074704338709</v>
+        <f t="shared" si="37"/>
+        <v>156220.03703844245</v>
       </c>
       <c r="AV18" s="5">
-        <f t="shared" si="35"/>
-        <v>85008.403957295319</v>
+        <f t="shared" si="37"/>
+        <v>154657.83666805801</v>
       </c>
       <c r="AW18" s="5">
-        <f t="shared" si="35"/>
-        <v>84158.319917722358</v>
+        <f t="shared" si="37"/>
+        <v>153111.25830137741</v>
       </c>
       <c r="AX18" s="5">
-        <f t="shared" si="35"/>
-        <v>83316.736718545129</v>
+        <f t="shared" si="37"/>
+        <v>151580.14571836364</v>
       </c>
       <c r="AY18" s="5">
-        <f t="shared" si="35"/>
-        <v>82483.569351359678</v>
+        <f t="shared" si="37"/>
+        <v>150064.34426118</v>
       </c>
       <c r="AZ18" s="5">
-        <f t="shared" si="35"/>
-        <v>81658.733657846082</v>
+        <f t="shared" si="37"/>
+        <v>148563.70081856821</v>
       </c>
       <c r="BA18" s="5">
-        <f t="shared" si="35"/>
-        <v>80842.146321267617</v>
+        <f t="shared" si="37"/>
+        <v>147078.06381038253</v>
       </c>
       <c r="BB18" s="5">
-        <f t="shared" si="35"/>
-        <v>80033.724858054935</v>
+        <f t="shared" si="37"/>
+        <v>145607.28317227869</v>
       </c>
       <c r="BC18" s="5">
-        <f t="shared" si="35"/>
-        <v>79233.38760947439</v>
+        <f t="shared" si="37"/>
+        <v>144151.2103405559</v>
       </c>
       <c r="BD18" s="5">
-        <f t="shared" si="35"/>
-        <v>78441.053733379638</v>
+        <f t="shared" si="37"/>
+        <v>142709.69823715035</v>
       </c>
       <c r="BE18" s="5">
-        <f t="shared" si="35"/>
-        <v>77656.643196045843</v>
+        <f t="shared" si="37"/>
+        <v>141282.60125477886</v>
       </c>
       <c r="BF18" s="5">
-        <f t="shared" si="35"/>
-        <v>76880.076764085388</v>
+        <f t="shared" si="37"/>
+        <v>139869.77524223106</v>
       </c>
       <c r="BG18" s="5">
-        <f t="shared" si="35"/>
-        <v>76111.275996444529</v>
+        <f t="shared" si="37"/>
+        <v>138471.07748980875</v>
       </c>
       <c r="BH18" s="5">
-        <f t="shared" si="35"/>
-        <v>75350.16323648009</v>
+        <f t="shared" si="37"/>
+        <v>137086.36671491066</v>
       </c>
       <c r="BI18" s="5">
-        <f t="shared" si="35"/>
-        <v>74596.661604115288</v>
+        <f t="shared" si="37"/>
+        <v>135715.50304776157</v>
       </c>
       <c r="BJ18" s="5">
-        <f t="shared" si="35"/>
-        <v>73850.69498807413</v>
+        <f t="shared" si="37"/>
+        <v>134358.34801728395</v>
       </c>
       <c r="BK18" s="5">
-        <f t="shared" si="35"/>
-        <v>73112.188038193388</v>
+        <f t="shared" si="37"/>
+        <v>133014.7645371111</v>
       </c>
       <c r="BL18" s="5">
-        <f t="shared" si="35"/>
-        <v>72381.066157811452</v>
+        <f t="shared" si="37"/>
+        <v>131684.61689173998</v>
       </c>
       <c r="BM18" s="5">
-        <f t="shared" si="35"/>
-        <v>71657.255496233338</v>
+        <f t="shared" si="37"/>
+        <v>130367.77072282258</v>
       </c>
       <c r="BN18" s="5">
-        <f t="shared" si="35"/>
-        <v>70940.682941271007</v>
+        <f t="shared" si="37"/>
+        <v>129064.09301559435</v>
       </c>
       <c r="BO18" s="5">
-        <f t="shared" si="35"/>
-        <v>70231.2761118583</v>
+        <f t="shared" si="37"/>
+        <v>127773.4520854384</v>
       </c>
       <c r="BP18" s="5">
-        <f t="shared" si="35"/>
-        <v>69528.963350739723</v>
+        <f t="shared" si="37"/>
+        <v>126495.71756458402</v>
       </c>
       <c r="BQ18" s="5">
-        <f t="shared" ref="BQ18:CV18" si="36">BP18*(1+$AM$39)</f>
-        <v>68833.673717232319</v>
+        <f t="shared" ref="BQ18:CV18" si="38">BP18*(1+$AM$39)</f>
+        <v>125230.76038893817</v>
       </c>
       <c r="BR18" s="5">
-        <f t="shared" si="36"/>
-        <v>68145.33698005999</v>
+        <f t="shared" si="38"/>
+        <v>123978.45278504879</v>
       </c>
       <c r="BS18" s="5">
-        <f t="shared" si="36"/>
-        <v>67463.883610259392</v>
+        <f t="shared" si="38"/>
+        <v>122738.66825719831</v>
       </c>
       <c r="BT18" s="5">
-        <f t="shared" si="36"/>
-        <v>66789.244774156803</v>
+        <f t="shared" si="38"/>
+        <v>121511.28157462632</v>
       </c>
       <c r="BU18" s="5">
-        <f t="shared" si="36"/>
-        <v>66121.352326415232</v>
+        <f t="shared" si="38"/>
+        <v>120296.16875888006</v>
       </c>
       <c r="BV18" s="5">
-        <f t="shared" si="36"/>
-        <v>65460.13880315108</v>
+        <f t="shared" si="38"/>
+        <v>119093.20707129125</v>
       </c>
       <c r="BW18" s="5">
-        <f t="shared" si="36"/>
-        <v>64805.537415119565</v>
+        <f t="shared" si="38"/>
+        <v>117902.27500057835</v>
       </c>
       <c r="BX18" s="5">
-        <f t="shared" si="36"/>
-        <v>64157.482040968367</v>
+        <f t="shared" si="38"/>
+        <v>116723.25225057256</v>
       </c>
       <c r="BY18" s="5">
-        <f t="shared" si="36"/>
-        <v>63515.907220558685</v>
+        <f t="shared" si="38"/>
+        <v>115556.01972806684</v>
       </c>
       <c r="BZ18" s="5">
-        <f t="shared" si="36"/>
-        <v>62880.748148353101</v>
+        <f t="shared" si="38"/>
+        <v>114400.45953078616</v>
       </c>
       <c r="CA18" s="5">
-        <f t="shared" si="36"/>
-        <v>62251.940666869566</v>
+        <f t="shared" si="38"/>
+        <v>113256.45493547829</v>
       </c>
       <c r="CB18" s="5">
-        <f t="shared" si="36"/>
-        <v>61629.42126020087</v>
+        <f t="shared" si="38"/>
+        <v>112123.89038612352</v>
       </c>
       <c r="CC18" s="5">
-        <f t="shared" si="36"/>
-        <v>61013.127047598864</v>
+        <f t="shared" si="38"/>
+        <v>111002.65148226228</v>
       </c>
       <c r="CD18" s="5">
-        <f t="shared" si="36"/>
-        <v>60402.995777122873</v>
+        <f t="shared" si="38"/>
+        <v>109892.62496743967</v>
       </c>
       <c r="CE18" s="5">
-        <f t="shared" si="36"/>
-        <v>59798.965819351644</v>
+        <f t="shared" si="38"/>
+        <v>108793.69871776528</v>
       </c>
       <c r="CF18" s="5">
-        <f t="shared" si="36"/>
-        <v>59200.976161158127</v>
+        <f t="shared" si="38"/>
+        <v>107705.76173058762</v>
       </c>
       <c r="CG18" s="5">
-        <f t="shared" si="36"/>
-        <v>58608.966399546545</v>
+        <f t="shared" si="38"/>
+        <v>106628.70411328174</v>
       </c>
       <c r="CH18" s="5">
-        <f t="shared" si="36"/>
-        <v>58022.876735551079</v>
+        <f t="shared" si="38"/>
+        <v>105562.41707214892</v>
       </c>
       <c r="CI18" s="5">
-        <f t="shared" si="36"/>
-        <v>57442.647968195568</v>
+        <f t="shared" si="38"/>
+        <v>104506.79290142743</v>
       </c>
       <c r="CJ18" s="5">
-        <f t="shared" si="36"/>
-        <v>56868.221488513613</v>
+        <f t="shared" si="38"/>
+        <v>103461.72497241315</v>
       </c>
       <c r="CK18" s="5">
-        <f t="shared" si="36"/>
-        <v>56299.539273628478</v>
+        <f t="shared" si="38"/>
+        <v>102427.10772268902</v>
       </c>
       <c r="CL18" s="5">
-        <f t="shared" si="36"/>
-        <v>55736.54388089219</v>
+        <f t="shared" si="38"/>
+        <v>101402.83664546213</v>
       </c>
       <c r="CM18" s="5">
-        <f t="shared" si="36"/>
-        <v>55179.17844208327</v>
+        <f t="shared" si="38"/>
+        <v>100388.80827900751</v>
       </c>
       <c r="CN18" s="5">
-        <f t="shared" si="36"/>
-        <v>54627.386657662435</v>
+        <f t="shared" si="38"/>
+        <v>99384.920196217441</v>
       </c>
       <c r="CO18" s="5">
-        <f t="shared" si="36"/>
-        <v>54081.112791085812</v>
+        <f t="shared" si="38"/>
+        <v>98391.070994255264</v>
       </c>
       <c r="CP18" s="5">
-        <f t="shared" si="36"/>
-        <v>53540.301663174956</v>
+        <f t="shared" si="38"/>
+        <v>97407.160284312704</v>
       </c>
       <c r="CQ18" s="5">
-        <f t="shared" si="36"/>
-        <v>53004.898646543203</v>
+        <f t="shared" si="38"/>
+        <v>96433.08868146957</v>
       </c>
       <c r="CR18" s="5">
-        <f t="shared" si="36"/>
-        <v>52474.849660077773</v>
+        <f t="shared" si="38"/>
+        <v>95468.75779465487</v>
       </c>
       <c r="CS18" s="5">
-        <f t="shared" si="36"/>
-        <v>51950.101163476997</v>
+        <f t="shared" si="38"/>
+        <v>94514.070216708322</v>
       </c>
       <c r="CT18" s="5">
-        <f t="shared" si="36"/>
-        <v>51430.600151842227</v>
+        <f t="shared" si="38"/>
+        <v>93568.929514541232</v>
       </c>
       <c r="CU18" s="5">
-        <f t="shared" si="36"/>
-        <v>50916.294150323803</v>
+        <f t="shared" si="38"/>
+        <v>92633.240219395826</v>
       </c>
       <c r="CV18" s="5">
-        <f t="shared" si="36"/>
-        <v>50407.131208820567</v>
+        <f t="shared" si="38"/>
+        <v>91706.907817201864</v>
       </c>
       <c r="CW18" s="5">
-        <f t="shared" ref="CW18:EB18" si="37">CV18*(1+$AM$39)</f>
-        <v>49903.05989673236</v>
+        <f t="shared" ref="CW18:EB18" si="39">CV18*(1+$AM$39)</f>
+        <v>90789.838739029845</v>
       </c>
       <c r="CX18" s="5">
-        <f t="shared" si="37"/>
-        <v>49404.029297765039</v>
+        <f t="shared" si="39"/>
+        <v>89881.94035163954</v>
       </c>
       <c r="CY18" s="5">
-        <f t="shared" si="37"/>
-        <v>48909.989004787385</v>
+        <f t="shared" si="39"/>
+        <v>88983.120948123149</v>
       </c>
       <c r="CZ18" s="5">
-        <f t="shared" si="37"/>
-        <v>48420.889114739512</v>
+        <f t="shared" si="39"/>
+        <v>88093.289738641921</v>
       </c>
       <c r="DA18" s="5">
-        <f t="shared" si="37"/>
-        <v>47936.680223592113</v>
+        <f t="shared" si="39"/>
+        <v>87212.356841255503</v>
       </c>
       <c r="DB18" s="5">
-        <f t="shared" si="37"/>
-        <v>47457.313421356193</v>
+        <f t="shared" si="39"/>
+        <v>86340.233272842946</v>
       </c>
       <c r="DC18" s="5">
-        <f t="shared" si="37"/>
-        <v>46982.740287142631</v>
+        <f t="shared" si="39"/>
+        <v>85476.830940114523</v>
       </c>
       <c r="DD18" s="5">
-        <f t="shared" si="37"/>
-        <v>46512.912884271202</v>
+        <f t="shared" si="39"/>
+        <v>84622.062630713379</v>
       </c>
       <c r="DE18" s="5">
-        <f t="shared" si="37"/>
-        <v>46047.783755428492</v>
+        <f t="shared" si="39"/>
+        <v>83775.842004406251</v>
       </c>
       <c r="DF18" s="5">
-        <f t="shared" si="37"/>
-        <v>45587.305917874204</v>
+        <f t="shared" si="39"/>
+        <v>82938.08358436219</v>
       </c>
       <c r="DG18" s="5">
-        <f t="shared" si="37"/>
-        <v>45131.432858695465</v>
+        <f t="shared" si="39"/>
+        <v>82108.702748518568</v>
       </c>
       <c r="DH18" s="5">
-        <f t="shared" si="37"/>
-        <v>44680.118530108513</v>
+        <f t="shared" si="39"/>
+        <v>81287.615721033377</v>
       </c>
       <c r="DI18" s="5">
-        <f t="shared" si="37"/>
-        <v>44233.31734480743</v>
+        <f t="shared" si="39"/>
+        <v>80474.739563823037</v>
       </c>
       <c r="DJ18" s="5">
-        <f t="shared" si="37"/>
-        <v>43790.984171359356</v>
+        <f t="shared" si="39"/>
+        <v>79669.992168184806</v>
       </c>
       <c r="DK18" s="5">
-        <f t="shared" si="37"/>
-        <v>43353.074329645759</v>
+        <f t="shared" si="39"/>
+        <v>78873.292246502955</v>
       </c>
       <c r="DL18" s="5">
-        <f t="shared" si="37"/>
-        <v>42919.543586349304</v>
+        <f t="shared" si="39"/>
+        <v>78084.559324037924</v>
       </c>
       <c r="DM18" s="5">
-        <f t="shared" si="37"/>
-        <v>42490.348150485814</v>
+        <f t="shared" si="39"/>
+        <v>77303.71373079755</v>
       </c>
       <c r="DN18" s="5">
-        <f t="shared" si="37"/>
-        <v>42065.444668980956</v>
+        <f t="shared" si="39"/>
+        <v>76530.676593489567</v>
       </c>
       <c r="DO18" s="5">
-        <f t="shared" si="37"/>
-        <v>41644.790222291143</v>
+        <f t="shared" si="39"/>
+        <v>75765.369827554663</v>
       </c>
       <c r="DP18" s="5">
-        <f t="shared" si="37"/>
-        <v>41228.34232006823</v>
+        <f t="shared" si="39"/>
+        <v>75007.716129279113</v>
       </c>
       <c r="DQ18" s="5">
-        <f t="shared" si="37"/>
-        <v>40816.058896867544</v>
+        <f t="shared" si="39"/>
+        <v>74257.63896798632</v>
       </c>
       <c r="DR18" s="5">
-        <f t="shared" si="37"/>
-        <v>40407.898307898868</v>
+        <f t="shared" si="39"/>
+        <v>73515.062578306461</v>
       </c>
       <c r="DS18" s="5">
-        <f t="shared" si="37"/>
-        <v>40003.81932481988</v>
+        <f t="shared" si="39"/>
+        <v>72779.911952523398</v>
       </c>
       <c r="DT18" s="5">
-        <f t="shared" si="37"/>
-        <v>39603.781131571683</v>
+        <f t="shared" si="39"/>
+        <v>72052.112832998158</v>
       </c>
       <c r="DU18" s="5">
-        <f t="shared" si="37"/>
-        <v>39207.743320255962</v>
+        <f t="shared" si="39"/>
+        <v>71331.591704668172</v>
       </c>
       <c r="DV18" s="5">
-        <f t="shared" si="37"/>
-        <v>38815.665887053401</v>
+        <f t="shared" si="39"/>
+        <v>70618.275787621489</v>
       </c>
       <c r="DW18" s="5">
-        <f t="shared" si="37"/>
-        <v>38427.509228182869</v>
+        <f t="shared" si="39"/>
+        <v>69912.093029745272</v>
       </c>
       <c r="DX18" s="5">
-        <f t="shared" si="37"/>
-        <v>38043.234135901039</v>
+        <f t="shared" si="39"/>
+        <v>69212.972099447812</v>
       </c>
       <c r="DY18" s="5">
-        <f t="shared" si="37"/>
-        <v>37662.801794542029</v>
+        <f t="shared" si="39"/>
+        <v>68520.842378453337</v>
       </c>
       <c r="DZ18" s="5">
-        <f t="shared" si="37"/>
-        <v>37286.17377659661</v>
+        <f t="shared" si="39"/>
+        <v>67835.633954668796</v>
       </c>
       <c r="EA18" s="5">
-        <f t="shared" si="37"/>
-        <v>36913.312038830642</v>
+        <f t="shared" si="39"/>
+        <v>67157.277615122104</v>
       </c>
       <c r="EB18" s="5">
-        <f t="shared" si="37"/>
-        <v>36544.178918442332</v>
+        <f t="shared" si="39"/>
+        <v>66485.70483897088</v>
       </c>
       <c r="EC18" s="5">
-        <f t="shared" ref="EC18:EO18" si="38">EB18*(1+$AM$39)</f>
-        <v>36178.737129257912</v>
+        <f t="shared" ref="EC18:EO18" si="40">EB18*(1+$AM$39)</f>
+        <v>65820.847790581174</v>
       </c>
       <c r="ED18" s="5">
-        <f t="shared" si="38"/>
-        <v>35816.949757965333</v>
+        <f t="shared" si="40"/>
+        <v>65162.639312675361</v>
       </c>
       <c r="EE18" s="5">
-        <f t="shared" si="38"/>
-        <v>35458.780260385676</v>
+        <f t="shared" si="40"/>
+        <v>64511.012919548608</v>
       </c>
       <c r="EF18" s="5">
-        <f t="shared" si="38"/>
-        <v>35104.192457781821</v>
+        <f t="shared" si="40"/>
+        <v>63865.902790353124</v>
       </c>
       <c r="EG18" s="5">
-        <f t="shared" si="38"/>
-        <v>34753.150533204003</v>
+        <f t="shared" si="40"/>
+        <v>63227.243762449594</v>
       </c>
       <c r="EH18" s="5">
-        <f t="shared" si="38"/>
-        <v>34405.619027871966</v>
+        <f t="shared" si="40"/>
+        <v>62594.971324825099</v>
       </c>
       <c r="EI18" s="5">
-        <f t="shared" si="38"/>
-        <v>34061.562837593243</v>
+        <f t="shared" si="40"/>
+        <v>61969.021611576849</v>
       </c>
       <c r="EJ18" s="5">
-        <f t="shared" si="38"/>
-        <v>33720.947209217309</v>
+        <f t="shared" si="40"/>
+        <v>61349.331395461079</v>
       </c>
       <c r="EK18" s="5">
-        <f t="shared" si="38"/>
-        <v>33383.737737125135</v>
+        <f t="shared" si="40"/>
+        <v>60735.838081506467</v>
       </c>
       <c r="EL18" s="5">
-        <f t="shared" si="38"/>
-        <v>33049.900359753883</v>
+        <f t="shared" si="40"/>
+        <v>60128.479700691401</v>
       </c>
       <c r="EM18" s="5">
-        <f t="shared" si="38"/>
-        <v>32719.401356156344</v>
+        <f t="shared" si="40"/>
+        <v>59527.194903684489</v>
       </c>
       <c r="EN18" s="5">
-        <f t="shared" si="38"/>
-        <v>32392.207342594782</v>
+        <f t="shared" si="40"/>
+        <v>58931.922954647642</v>
       </c>
       <c r="EO18" s="5">
-        <f t="shared" si="38"/>
-        <v>32068.285269168835</v>
-      </c>
-    </row>
-    <row r="19" spans="2:145" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>58342.603725101166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:145" x14ac:dyDescent="0.2">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -5673,84 +5767,90 @@
       <c r="R19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:R20" si="39">C18/C21</f>
+        <f t="shared" ref="C20:R20" si="41">C18/C21</f>
         <v>0.63961038961038963</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.89610389610389607</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.4546925566343043</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.5297906602254427</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.4742765273311897</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.24840255591054314</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.53015873015873016</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.57725832012678291</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.75632911392405067</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.93759873617693523</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.97084318360914101</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.1799607072691551</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.1710681907765077</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.26073131955484896</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.29211684673869548</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.57085183689947516</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" ref="S20:T20" si="40">S18/S21</f>
+        <f t="shared" ref="S20:T20" si="42">S18/S21</f>
         <v>0.82048192771084338</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="40"/>
-        <v>1.6474698795180727</v>
-      </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+        <f t="shared" si="42"/>
+        <v>2.4761904761904763</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:V20" si="43">U18/U21</f>
+        <v>3.7060946271050521</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="43"/>
+        <v>4.0864859437751004</v>
+      </c>
       <c r="W20" s="1"/>
       <c r="Y20" s="7">
         <f>Y18/Y21</f>
@@ -5769,7 +5869,7 @@
         <v>2.3001296240901388</v>
       </c>
     </row>
-    <row r="21" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -5825,10 +5925,14 @@
         <v>2490</v>
       </c>
       <c r="T21" s="4">
+        <v>2499</v>
+      </c>
+      <c r="U21" s="4">
+        <v>2494</v>
+      </c>
+      <c r="V21" s="4">
         <v>2490</v>
       </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="Y21" s="4">
         <f>AVERAGE(C21:F21)</f>
@@ -5847,7 +5951,7 @@
         <v>2507.25</v>
       </c>
     </row>
-    <row r="22" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:145" x14ac:dyDescent="0.2">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -5871,7 +5975,7 @@
       <c r="Y22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>57</v>
       </c>
@@ -5880,47 +5984,47 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="6">
-        <f t="shared" ref="G23:Q23" si="41">G7/C7-1</f>
+        <f t="shared" ref="G23:Q23" si="44">G7/C7-1</f>
         <v>0.38738738738738743</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.49903063202791786</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.56801592568015935</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.61127214170692423</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.83798701298701306</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.68313502327987585</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.50296233601354201</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.52768338996602049</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.15796142475010555</v>
       </c>
       <c r="R23" s="6">
@@ -5933,18 +6037,21 @@
       </c>
       <c r="T23" s="6">
         <f>T7/P7-1</f>
-        <v>0.6408114558472553</v>
-      </c>
-      <c r="U23" s="6"/>
+        <v>1.0147673031026252</v>
+      </c>
+      <c r="U23" s="6">
+        <f>U7/Q7-1</f>
+        <v>2.0295937134258484</v>
+      </c>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="6">
-        <f t="shared" ref="Z23:AA23" si="42">Z7/Y7-1</f>
+        <f t="shared" ref="Z23:AA23" si="45">Z7/Y7-1</f>
         <v>0.52729437625938824</v>
       </c>
       <c r="AA23" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.61403298350824587</v>
       </c>
       <c r="AB23" s="6">
@@ -5952,39 +6059,39 @@
         <v>4.0870922196625248E-3</v>
       </c>
       <c r="AC23" s="6">
-        <f t="shared" ref="AC23:AJ23" si="43">AC7/AB7-1</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="AC23:AJ23" si="46">AC7/AB7-1</f>
+        <v>1.1765467732386026</v>
       </c>
       <c r="AD23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AE23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="AF23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" si="43"/>
-        <v>0.30000000000000027</v>
+        <f t="shared" si="46"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AI23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AJ23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>58</v>
       </c>
@@ -5993,47 +6100,47 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="6">
-        <f t="shared" ref="G24:Q24" si="44">G10/C10-1</f>
+        <f t="shared" ref="G24:Q24" si="47">G10/C10-1</f>
         <v>9.0504451038575739E-2</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.41619318181818188</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.47050561797752799</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.55420054200542013</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.56870748299319729</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.24874623871614854</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.34001910219675269</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.27811682650392333</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.40329575021682573</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.46506024096385534</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.38631503920171073</v>
       </c>
       <c r="R24" s="6">
@@ -6044,17 +6151,23 @@
         <f>S10/O10-1</f>
         <v>0.15883807169344877</v>
       </c>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
+      <c r="T24" s="6">
+        <f t="shared" ref="T24:U24" si="48">T10/P10-1</f>
+        <v>0.11842105263157898</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" si="48"/>
+        <v>0.17943444730077118</v>
+      </c>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="6">
-        <f t="shared" ref="Z24:AA24" si="45">Z10/Y10-1</f>
+        <f t="shared" ref="Z24:AA24" si="49">Z10/Y10-1</f>
         <v>0.38826025459688829</v>
       </c>
       <c r="AA24" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.34156902699949065</v>
       </c>
       <c r="AB24" s="6">
@@ -6062,39 +6175,39 @@
         <v>0.3932029618378583</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" ref="AC24:AJ24" si="46">AC10/AB10-1</f>
+        <f t="shared" ref="AC24:AJ24" si="50">AC10/AB10-1</f>
         <v>-1</v>
       </c>
       <c r="AD24" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE24" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF24" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG24" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH24" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI24" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ24" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>59</v>
       </c>
@@ -6103,47 +6216,47 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="6">
-        <f t="shared" ref="G25:Q25" si="47">G11/C11-1</f>
+        <f t="shared" ref="G25:Q25" si="51">G11/C11-1</f>
         <v>0.10984848484848486</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1.3571428571428572</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.8592057761732852</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.7526132404181185</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.77474402730375425</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.16108452950558216</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>8.1553398058252347E-2</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.11928429423459241</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.13846153846153841</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.12547528517110274</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.1328545780969479</v>
       </c>
       <c r="R25" s="6">
@@ -6154,17 +6267,23 @@
         <f>S11/O11-1</f>
         <v>6.9256756756756799E-2</v>
       </c>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
+      <c r="T25" s="6">
+        <f t="shared" ref="T25:U25" si="52">T11/P11-1</f>
+        <v>5.0675675675675658E-2</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" si="52"/>
+        <v>9.191759112519815E-2</v>
+      </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="6">
-        <f t="shared" ref="Z25:AA25" si="48">Z11/Y11-1</f>
+        <f t="shared" ref="Z25:AA25" si="53">Z11/Y11-1</f>
         <v>0.7714808043875685</v>
       </c>
       <c r="AA25" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.11764705882352944</v>
       </c>
       <c r="AB25" s="6">
@@ -6172,39 +6291,39 @@
         <v>0.12650046168051698</v>
       </c>
       <c r="AC25" s="6">
-        <f t="shared" ref="AC25:AJ25" si="49">AC11/AB11-1</f>
+        <f t="shared" ref="AC25:AJ25" si="54">AC11/AB11-1</f>
         <v>-1</v>
       </c>
       <c r="AD25" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE25" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF25" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG25" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH25" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI25" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ25" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -6213,111 +6332,114 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="6">
-        <f t="shared" ref="G26:T26" si="50">G18/C18-1</f>
+        <f t="shared" ref="G26:U26" si="55">G18/C18-1</f>
         <v>1.3274111675126905</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.12681159420289845</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.486095661846496</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.53368421052631576</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>1.085059978189749</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>2.8167202572347265</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.84431137724550909</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>1.0610844200411806</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.55387029288702938</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-0.72367312552653751</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-0.70373376623376616</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-0.52913752913752909</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-0.3123527431841131</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" si="50"/>
-        <v>5.2533536585365868</v>
-      </c>
-      <c r="U26" s="6"/>
+        <f t="shared" si="55"/>
+        <v>8.4329268292682933</v>
+      </c>
+      <c r="U26" s="6">
+        <f t="shared" si="55"/>
+        <v>11.661643835616438</v>
+      </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="6">
-        <f t="shared" ref="Z26:AJ26" si="51">Z18/Y18-1</f>
+        <f t="shared" ref="Z26:AJ26" si="56">Z18/Y18-1</f>
         <v>0.54991055456171734</v>
       </c>
       <c r="AA26" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>1.2513850415512464</v>
       </c>
       <c r="AB26" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-0.40869476058648624</v>
       </c>
       <c r="AC26" s="6">
-        <f t="shared" si="51"/>
-        <v>1.7704041529391366</v>
+        <f t="shared" si="56"/>
+        <v>4.0428464539621976</v>
       </c>
       <c r="AD26" s="6">
-        <f t="shared" si="51"/>
-        <v>0.4240766462891481</v>
+        <f t="shared" si="56"/>
+        <v>0.42434013172297025</v>
       </c>
       <c r="AE26" s="6">
-        <f t="shared" si="51"/>
-        <v>0.36846307046506865</v>
+        <f t="shared" si="56"/>
+        <v>0.36852141074240663</v>
       </c>
       <c r="AF26" s="6">
-        <f t="shared" si="51"/>
-        <v>0.31561799147601621</v>
+        <f t="shared" si="56"/>
+        <v>0.31553914163996555</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="51"/>
-        <v>0.31218284019837683</v>
+        <f t="shared" si="56"/>
+        <v>0.31211320077631388</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="51"/>
-        <v>0.21510208212888693</v>
+        <f t="shared" si="56"/>
+        <v>0.21481149171619229</v>
       </c>
       <c r="AI26" s="6">
-        <f t="shared" si="51"/>
-        <v>0.21275490513325135</v>
+        <f t="shared" si="56"/>
+        <v>0.21250332653134318</v>
       </c>
       <c r="AJ26" s="6">
-        <f t="shared" si="51"/>
-        <v>0.21079337740675719</v>
-      </c>
-    </row>
-    <row r="27" spans="2:145" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0.210574949426797</v>
+      </c>
+    </row>
+    <row r="27" spans="2:145" x14ac:dyDescent="0.2">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -6352,7 +6474,7 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -6362,61 +6484,67 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:S32" si="52">H2/D2-1</f>
+        <f t="shared" ref="H28:S32" si="57">H2/D2-1</f>
         <v>1.6748091603053434</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.6170798898071626</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.96590909090909083</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.79491673970201582</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.35045662100456632</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.54526315789473689</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.7146610614818707</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.8310546875</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.60862214708368545</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.32254768392370581</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.10818265399938709</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.14240000000000008</v>
       </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
+      <c r="T28" s="6">
+        <f t="shared" ref="T28:T32" si="58">T2/P2-1</f>
+        <v>1.712296374146085</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" ref="U28:U32" si="59">U2/Q2-1</f>
+        <v>2.7378315735256247</v>
+      </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6">
-        <f t="shared" ref="AA28" si="53">AA2/Z2-1</f>
+        <f t="shared" ref="AA28" si="60">AA2/Z2-1</f>
         <v>0.5849761051373954</v>
       </c>
       <c r="AB28" s="6">
@@ -6424,39 +6552,39 @@
         <v>0.41854329595778772</v>
       </c>
       <c r="AC28" s="6">
-        <f t="shared" ref="AC28:AJ32" si="54">AC2/AB2-1</f>
+        <f t="shared" ref="AC28:AJ32" si="61">AC2/AB2-1</f>
         <v>-1</v>
       </c>
       <c r="AD28" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE28" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF28" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG28" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH28" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI28" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ28" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>62</v>
       </c>
@@ -6466,101 +6594,107 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.25971058644325962</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.36889692585895117</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.67337357478202553</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.0612397311426438</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.85066505441354301</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.41831792162043158</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.3707414829659319</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.31159420289855078</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.33289774583469456</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.51133188450791678</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.46461988304093571</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.38121546961325969</v>
       </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="T29" s="6">
+        <f t="shared" si="58"/>
+        <v>0.21743388834475996</v>
+      </c>
+      <c r="U29" s="6">
+        <f t="shared" si="59"/>
+        <v>0.81448538754764921</v>
+      </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6">
-        <f t="shared" ref="AA29:AB32" si="55">AA3/Z3-1</f>
+        <f t="shared" ref="AA29:AB32" si="62">AA3/Z3-1</f>
         <v>0.60613481118700863</v>
       </c>
       <c r="AB29" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-0.27242818167228378</v>
       </c>
       <c r="AC29" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-1</v>
       </c>
       <c r="AD29" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE29" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF29" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG29" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH29" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI29" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ29" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>63</v>
       </c>
@@ -6570,101 +6704,107 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.30240549828178698</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.27160493827160492</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-7.2507552870090586E-2</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.21172638436482094</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.5566502463054186</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.4449152542372881</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.0944625407166124</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.67204301075268824</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-4.4315992292870865E-2</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.65337954939341425</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.64852255054432351</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.52572347266881025</v>
       </c>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
+      <c r="T30" s="6">
+        <f t="shared" si="58"/>
+        <v>-0.23588709677419351</v>
+      </c>
+      <c r="U30" s="6">
+        <f t="shared" si="59"/>
+        <v>1.08</v>
+      </c>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>1.0047483380816713</v>
       </c>
       <c r="AB30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-0.26859308384651825</v>
       </c>
       <c r="AC30" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-1</v>
       </c>
       <c r="AD30" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE30" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF30" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG30" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH30" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI30" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ30" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>64</v>
       </c>
@@ -6674,101 +6814,107 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.46889952153110048</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.22839506172839508</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.11042944785276076</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-6.4516129032258229E-3</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.36936936936936937</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.13793103448275867</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.10389610389610393</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.44736842105263164</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.85925925925925917</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.3519999999999999</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.1449275362318843</v>
       </c>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
+      <c r="T31" s="6">
+        <f t="shared" si="58"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" si="59"/>
+        <v>3.9840637450199168E-2</v>
+      </c>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>5.5970149253731449E-2</v>
       </c>
       <c r="AB31" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.59540636042402828</v>
       </c>
       <c r="AC31" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-1</v>
       </c>
       <c r="AD31" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE31" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF31" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG31" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH31" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI31" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ31" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>65</v>
       </c>
@@ -6778,73 +6924,79 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.31531531531531543</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.35664335664335667</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>6.5789473684210176E-3</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.3695652173913042</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.8013698630136985</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.20618556701030921</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.25490196078431371</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.51681957186544336</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.65770171149144252</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.68803418803418803</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.5625</v>
       </c>
       <c r="S32" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.51265822784810133</v>
       </c>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
+      <c r="T32" s="6">
+        <f t="shared" si="58"/>
+        <v>-0.52857142857142858</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.84152139461172748</v>
       </c>
       <c r="AB32" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-0.60843373493975905</v>
       </c>
       <c r="AC32" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-1</v>
       </c>
       <c r="AD32" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE32" s="6" t="e">
@@ -6852,27 +7004,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AF32" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG32" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH32" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI32" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ32" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -6895,7 +7047,7 @@
       <c r="W33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>66</v>
       </c>
@@ -6904,191 +7056,197 @@
         <v>0.16126126126126125</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" ref="D34:R34" si="56">D13/D7</f>
+        <f t="shared" ref="D34:R34" si="63">D13/D7</f>
         <v>0.22140364482357502</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.30756469807564696</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.3188405797101449</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.31688311688311688</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.16839110191412313</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.29581041049513329</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.30121926843893665</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.34552199258081612</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.37559551252497309</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.37603829367872732</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.38859086746042132</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.38863416988416988</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>7.4433174224343673E-2</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.10884467480354455</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.2077342588001983</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" ref="S34:T34" si="57">S13/S7</f>
+        <f t="shared" ref="S34:T34" si="64">S13/S7</f>
         <v>0.29755283648498332</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" si="57"/>
-        <v>0.43363636363636371</v>
-      </c>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
+        <f t="shared" si="64"/>
+        <v>0.50344265936181243</v>
+      </c>
+      <c r="U34" s="6">
+        <f t="shared" ref="U34:V34" si="65">U13/U7</f>
+        <v>0.5748896247240618</v>
+      </c>
+      <c r="V34" s="6">
+        <f t="shared" si="65"/>
+        <v>0.59</v>
+      </c>
       <c r="W34" s="6"/>
       <c r="Y34" s="6">
         <f>Y13/Y7</f>
         <v>0.2606704524638212</v>
       </c>
       <c r="Z34" s="6">
-        <f t="shared" ref="Z34:AJ34" si="58">Z13/Z7</f>
+        <f t="shared" ref="Z34:AJ34" si="66">Z13/Z7</f>
         <v>0.27178410794602698</v>
       </c>
       <c r="AA34" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>0.37307720888756779</v>
       </c>
       <c r="AB34" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>0.20825932504440497</v>
       </c>
       <c r="AC34" s="6">
-        <f t="shared" si="58"/>
-        <v>0.42</v>
+        <f t="shared" si="66"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AD34" s="6">
-        <f t="shared" si="58"/>
-        <v>0.42000000000000004</v>
+        <f t="shared" si="66"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AE34" s="6">
-        <f t="shared" si="58"/>
-        <v>0.42000000000000004</v>
+        <f t="shared" si="66"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AF34" s="6">
-        <f t="shared" si="58"/>
-        <v>0.42</v>
+        <f t="shared" si="66"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AG34" s="6">
-        <f t="shared" si="58"/>
-        <v>0.42</v>
+        <f t="shared" si="66"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AH34" s="6">
-        <f t="shared" si="58"/>
-        <v>0.42</v>
+        <f t="shared" si="66"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AI34" s="6">
-        <f t="shared" si="58"/>
-        <v>0.42</v>
+        <f t="shared" si="66"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AJ34" s="6">
-        <f t="shared" si="58"/>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
+        <f t="shared" si="66"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:R35" si="59">C9/C7</f>
+        <f t="shared" ref="C35:R35" si="67">C9/C7</f>
         <v>0.58378378378378382</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.59751841799146954</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.63570006635700071</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.64895330112721417</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.6506493506493507</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.58846352819451631</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.62632247143461706</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.6310213871676994</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.6410528175234057</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.64776394651913327</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.65197803744896521</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.65406254088708626</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.65528474903474898</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.43481503579952269</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.53954188262832303</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.63344901669145592</v>
       </c>
       <c r="S35" s="6">
@@ -7097,188 +7255,201 @@
       </c>
       <c r="T35" s="6">
         <f>T9/T7</f>
-        <v>0.68</v>
-      </c>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
+        <v>0.7005256533649219</v>
+      </c>
+      <c r="U35" s="6">
+        <f>U9/U7</f>
+        <v>0.73951434878587197</v>
+      </c>
+      <c r="V35" s="6">
+        <f>V9/V7</f>
+        <v>0.75</v>
+      </c>
       <c r="W35" s="6"/>
       <c r="Y35" s="6">
-        <f t="shared" ref="Y35:AJ35" si="60">Y9/Y7</f>
+        <f t="shared" ref="Y35:AJ35" si="68">Y9/Y7</f>
         <v>0.61989375343469499</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0.62344827586206897</v>
       </c>
       <c r="AA35" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0.64925317678531624</v>
       </c>
       <c r="AB35" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0.57008584961515685</v>
       </c>
       <c r="AC35" s="6">
-        <f t="shared" si="60"/>
-        <v>0.68</v>
+        <f t="shared" si="68"/>
+        <v>0.74</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="60"/>
-        <v>0.68</v>
+        <f t="shared" si="68"/>
+        <v>0.74</v>
       </c>
       <c r="AE35" s="6">
-        <f t="shared" si="60"/>
-        <v>0.68</v>
+        <f t="shared" si="68"/>
+        <v>0.74</v>
       </c>
       <c r="AF35" s="6">
-        <f t="shared" si="60"/>
-        <v>0.68</v>
+        <f t="shared" si="68"/>
+        <v>0.74</v>
       </c>
       <c r="AG35" s="6">
-        <f t="shared" si="60"/>
-        <v>0.68</v>
+        <f t="shared" si="68"/>
+        <v>0.74</v>
       </c>
       <c r="AH35" s="6">
-        <f t="shared" si="60"/>
-        <v>0.68</v>
+        <f t="shared" si="68"/>
+        <v>0.74</v>
       </c>
       <c r="AI35" s="6">
-        <f t="shared" si="60"/>
-        <v>0.68</v>
+        <f t="shared" si="68"/>
+        <v>0.74</v>
       </c>
       <c r="AJ35" s="6">
-        <f t="shared" si="60"/>
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.25">
+        <f t="shared" si="68"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>68</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" ref="C36:S36" si="61">C17/C16</f>
+        <f t="shared" ref="C36:V36" si="69">C17/C16</f>
         <v>-1.2853470437017995E-2</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>8.9108910891089105E-2</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>6.2565172054223156E-2</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>6.4960629921259838E-2</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>6.5239551478083593E-2</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-2.1346469622331693E-2</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>8.9020771513353119E-3</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>8.8435374149659872E-3</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>6.4579256360078274E-2</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>8.3542188805346695E-3</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>6.5959059893858987E-2</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-4.8167539267015703E-2</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>5.9214692843571878E-2</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-0.38105263157894737</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-0.10105580693815988</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-9.6974398758727695E-2</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>7.5147125396106837E-2</v>
       </c>
       <c r="T36" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
+        <f t="shared" si="69"/>
+        <v>0.11359404096834265</v>
+      </c>
+      <c r="U36" s="6">
+        <f t="shared" si="69"/>
+        <v>0.12155483748336818</v>
+      </c>
+      <c r="V36" s="6">
+        <f t="shared" si="69"/>
+        <v>0.15</v>
+      </c>
       <c r="W36" s="6"/>
       <c r="Y36" s="6">
-        <f t="shared" ref="Y36:AJ36" si="62">Y17/Y16</f>
+        <f t="shared" ref="Y36:AJ36" si="70">Y17/Y16</f>
         <v>5.8922558922558925E-2</v>
       </c>
       <c r="Z36" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>1.7241379310344827E-2</v>
       </c>
       <c r="AA36" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>1.8911578312041041E-2</v>
       </c>
       <c r="AB36" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>-3.3327360688048736E-2</v>
       </c>
       <c r="AC36" s="6">
-        <f t="shared" si="62"/>
-        <v>0.125</v>
+        <f t="shared" si="70"/>
+        <v>0.15</v>
       </c>
       <c r="AD36" s="6">
-        <f t="shared" si="62"/>
-        <v>0.125</v>
+        <f t="shared" si="70"/>
+        <v>0.15</v>
       </c>
       <c r="AE36" s="6">
-        <f t="shared" si="62"/>
-        <v>0.125</v>
+        <f t="shared" si="70"/>
+        <v>0.15</v>
       </c>
       <c r="AF36" s="6">
-        <f t="shared" si="62"/>
-        <v>0.125</v>
+        <f t="shared" si="70"/>
+        <v>0.15</v>
       </c>
       <c r="AG36" s="6">
-        <f t="shared" si="62"/>
-        <v>0.125</v>
+        <f t="shared" si="70"/>
+        <v>0.15</v>
       </c>
       <c r="AH36" s="6">
-        <f t="shared" si="62"/>
-        <v>0.125</v>
+        <f t="shared" si="70"/>
+        <v>0.15</v>
       </c>
       <c r="AI36" s="6">
-        <f t="shared" si="62"/>
-        <v>0.125</v>
+        <f t="shared" si="70"/>
+        <v>0.15</v>
       </c>
       <c r="AJ36" s="6">
-        <f t="shared" si="62"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.25">
+        <f t="shared" si="70"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>91</v>
       </c>
@@ -7287,75 +7458,83 @@
         <v>0.17747747747747747</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" ref="D37:T37" si="63">D18/D7</f>
+        <f t="shared" ref="D37:T37" si="71">D18/D7</f>
         <v>0.2140364482357503</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.29827471798274718</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.30595813204508859</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.29772727272727273</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.16088980858768753</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.28269149386373255</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.29122526484109534</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.33774951422010246</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.36483786691255571</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.3468956778825848</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.39290854376553708</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.35847007722007723</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9.7852028639618144E-2</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.12205316836649389</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.2336803834077012</v>
       </c>
       <c r="S37" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.28406562847608452</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" si="63"/>
-        <v>0.37292727272727277</v>
-      </c>
-    </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.25">
+        <f t="shared" si="71"/>
+        <v>0.45813282001924927</v>
+      </c>
+      <c r="U37" s="6">
+        <f t="shared" ref="U37:V37" si="72">U18/U7</f>
+        <v>0.51009933774834437</v>
+      </c>
+      <c r="V37" s="6">
+        <f t="shared" si="72"/>
+        <v>0.50876750000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>69</v>
       </c>
@@ -7379,38 +7558,38 @@
       </c>
       <c r="AC38" s="4">
         <f>+AB38+AC18</f>
-        <v>19283.920749999997</v>
+        <v>32389.095499999996</v>
       </c>
       <c r="AD38" s="4">
-        <f t="shared" ref="AD38:AI38" si="64">AC38+AD18</f>
-        <v>42036.280469687495</v>
+        <f t="shared" ref="AD38:AI38" si="73">AC38+AD18</f>
+        <v>73811.89123524999</v>
       </c>
       <c r="AE38" s="4">
-        <f t="shared" si="64"/>
-        <v>73172.044512016801</v>
+        <f t="shared" si="73"/>
+        <v>130499.87409174885</v>
       </c>
       <c r="AF38" s="4">
-        <f t="shared" si="64"/>
-        <v>114134.81586445725</v>
+        <f t="shared" si="73"/>
+        <v>205075.13440008846</v>
       </c>
       <c r="AG38" s="4">
-        <f t="shared" si="64"/>
-        <v>167885.46152009926</v>
+        <f t="shared" si="73"/>
+        <v>302926.31790199073</v>
       </c>
       <c r="AH38" s="4">
-        <f t="shared" si="64"/>
-        <v>233197.98297204188</v>
+        <f t="shared" si="73"/>
+        <v>421797.06009813148</v>
       </c>
       <c r="AI38" s="4">
-        <f t="shared" si="64"/>
-        <v>312406.06372950599</v>
+        <f t="shared" si="73"/>
+        <v>565928.2304382018</v>
       </c>
       <c r="AJ38" s="4">
         <f>AI38+AJ18</f>
-        <v>408310.68334774312</v>
-      </c>
-    </row>
-    <row r="39" spans="2:50" x14ac:dyDescent="0.25">
+        <v>740409.8146834576</v>
+      </c>
+    </row>
+    <row r="39" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -7434,7 +7613,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -7458,7 +7637,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -7479,13 +7658,13 @@
         <v>72</v>
       </c>
       <c r="AM41" s="8">
-        <f>NPV(AM40,AB18:EO18)</f>
-        <v>589774.86646985158</v>
+        <f>NPV(AM40,AC18:EP18)</f>
+        <v>1169979.7415148318</v>
       </c>
       <c r="AU41" s="4"/>
       <c r="AX41" s="18"/>
     </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -7514,7 +7693,7 @@
       <c r="AW42" s="11"/>
       <c r="AX42" s="14"/>
     </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -7553,7 +7732,7 @@
       <c r="AW43" s="4"/>
       <c r="AX43" s="16"/>
     </row>
-    <row r="44" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -7575,7 +7754,7 @@
       </c>
       <c r="AM44" s="8">
         <f>AM41-AM43</f>
-        <v>587581.86646985158</v>
+        <v>1167786.7415148318</v>
       </c>
       <c r="AP44" s="9"/>
       <c r="AQ44" s="13"/>
@@ -7587,14 +7766,14 @@
       <c r="AW44" s="15"/>
       <c r="AX44" s="17"/>
     </row>
-    <row r="45" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:50" x14ac:dyDescent="0.2">
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="P45" s="4"/>
       <c r="R45" s="4"/>
       <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -7626,7 +7805,7 @@
       <c r="AW46" s="6"/>
       <c r="AX46" s="6"/>
     </row>
-    <row r="47" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -7648,10 +7827,10 @@
       </c>
       <c r="AM47" s="9">
         <f>AM44/Main!L3</f>
-        <v>238.8544172641673</v>
-      </c>
-    </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.25">
+        <v>474.71005752635438</v>
+      </c>
+    </row>
+    <row r="48" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -7669,7 +7848,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:39" x14ac:dyDescent="0.2">
       <c r="M49" s="4"/>
       <c r="P49" s="4"/>
       <c r="R49" s="4"/>
@@ -7678,10 +7857,10 @@
       </c>
       <c r="AM49" s="6">
         <f>AM47/AM46-1</f>
-        <v>-0.38280512334840489</v>
-      </c>
-    </row>
-    <row r="50" spans="3:39" x14ac:dyDescent="0.25">
+        <v>0.22664097552029561</v>
+      </c>
+    </row>
+    <row r="50" spans="3:39" x14ac:dyDescent="0.2">
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -7695,12 +7874,12 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:39" x14ac:dyDescent="0.2">
       <c r="M51" s="4"/>
       <c r="P51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -7718,10 +7897,10 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:39" x14ac:dyDescent="0.2">
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:39" x14ac:dyDescent="0.2">
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -7735,7 +7914,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:39" x14ac:dyDescent="0.2">
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -7749,7 +7928,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:39" x14ac:dyDescent="0.2">
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -7763,7 +7942,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:39" x14ac:dyDescent="0.2">
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -7777,7 +7956,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:39" x14ac:dyDescent="0.2">
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -7791,10 +7970,10 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="60" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:39" x14ac:dyDescent="0.2">
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:39" x14ac:dyDescent="0.2">
       <c r="E61" s="4"/>
     </row>
   </sheetData>
@@ -7816,13 +7995,13 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>81</v>
       </c>
@@ -7842,7 +8021,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="27">
         <v>0</v>
       </c>
@@ -7862,7 +8041,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="27">
         <v>0.1</v>
       </c>
@@ -7882,7 +8061,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="27">
         <v>0.2</v>
       </c>
@@ -7902,7 +8081,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="27">
         <v>0.3</v>
       </c>
@@ -7922,7 +8101,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="27">
         <v>0.4</v>
       </c>
@@ -7942,7 +8121,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -7959,17 +8138,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C227BF73-5EA5-EB4C-B42F-1AF2C669855A}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -8019,7 +8198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8072,7 +8251,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -8125,7 +8304,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8178,7 +8357,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8231,7 +8410,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -8284,7 +8463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -8353,10 +8532,10 @@
         <v>7192</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -8403,7 +8582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -8468,7 +8647,7 @@
         <v>0.18473451327433632</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -8533,7 +8712,7 @@
         <v>0.22337520480611683</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -8583,7 +8762,7 @@
         <v>-0.1338</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -8648,7 +8827,7 @@
         <v>0.30530973451327426</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -8713,7 +8892,7 @@
         <v>6.8027210884353817E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -8778,7 +8957,7 @@
         <v>-8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -8843,8 +9022,8 @@
         <v>0.1885638737398776</v>
       </c>
     </row>
-    <row r="17" spans="16:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P18" s="50"/>
       <c r="Q18" s="21" t="s">
         <v>81</v>
@@ -8866,7 +9045,7 @@
       </c>
       <c r="W18" s="50"/>
     </row>
-    <row r="19" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P19" s="50"/>
       <c r="Q19" s="27">
         <v>0</v>
@@ -8888,7 +9067,7 @@
       </c>
       <c r="W19" s="50"/>
     </row>
-    <row r="20" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P20" s="50"/>
       <c r="Q20" s="27">
         <v>0.1</v>
@@ -8910,7 +9089,7 @@
       </c>
       <c r="W20" s="50"/>
     </row>
-    <row r="21" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P21" s="50"/>
       <c r="Q21" s="27">
         <v>0.2</v>
@@ -8932,7 +9111,7 @@
       </c>
       <c r="W21" s="50"/>
     </row>
-    <row r="22" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P22" s="50"/>
       <c r="Q22" s="27">
         <v>0.3</v>
@@ -8954,7 +9133,7 @@
       </c>
       <c r="W22" s="50"/>
     </row>
-    <row r="23" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P23" s="50"/>
       <c r="Q23" s="27">
         <v>0.4</v>
@@ -8976,13 +9155,13 @@
       </c>
       <c r="W23" s="50"/>
     </row>
-    <row r="24" spans="16:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="16:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P24" s="50"/>
       <c r="Q24" s="27"/>
       <c r="V24" s="22"/>
       <c r="W24" s="50"/>
     </row>
-    <row r="25" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P25" s="33"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="48" t="s">
@@ -8998,7 +9177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P26" s="45" t="s">
         <v>75</v>
       </c>
@@ -9024,7 +9203,7 @@
         <v>96.524809435008621</v>
       </c>
     </row>
-    <row r="27" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P27" s="46" t="s">
         <v>76</v>
       </c>
@@ -9050,7 +9229,7 @@
         <v>497187</v>
       </c>
     </row>
-    <row r="28" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P28" s="46" t="s">
         <v>78</v>
       </c>
@@ -9076,11 +9255,11 @@
         <v>202.10853658536584</v>
       </c>
     </row>
-    <row r="29" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P29" s="46"/>
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="16:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="16:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P30" s="47" t="s">
         <v>79</v>
       </c>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8000B1F-CF86-9F44-9699-17D4331155E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68ED001-01DA-344D-A4E2-B5A9A32BD5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="520" windowWidth="27740" windowHeight="21900" activeTab="1" xr2:uid="{7F1A3DF6-215C-2343-B883-EFC4578CE452}"/>
   </bookViews>
